--- a/Report_gatling_mock/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
+++ b/Report_gatling_mock/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="1" state="visible" r:id="rId3"/>
@@ -35,10 +35,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">&lt;анонимный&gt;:
 </t>
@@ -48,6 +47,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Microsoft Office User:
 Duration - заполняется на основе данных после выполнения итерации соотвествующего скрипта в Vugen'е
@@ -59,10 +59,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">&lt;анонимный&gt;:
 </t>
@@ -72,6 +71,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Microsoft Office User:
 ThinkTime - заполнятеся на основе ThinkTime'ов по выполнению одной итерации соотвествующего скрипта в Vugen'е
@@ -83,10 +83,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">&lt;анонимный&gt;:
 </t>
@@ -96,6 +95,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Microsoft Office User:
 Общая длительность одной итерации скрипта ThinkTime + Duration, считается автоматически
@@ -107,10 +107,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">&lt;анонимный&gt;:
 </t>
@@ -120,6 +119,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Microsoft Office User:
 Pacing не должен быть меньше чем Duration + think time (столбец P). Изначально считается как Duration + think time * 2 (коэф запаса времени), далее подгоняется вручную
@@ -131,10 +131,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">&lt;анонимный&gt;:
 </t>
@@ -144,6 +143,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Microsoft Office User:
 Количество пользователей для конкретного скрипта, заполняется вручную, сумма всех пользователей для 100% профиля не должна превышать 10.
@@ -155,10 +155,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">&lt;анонимный&gt;:
 </t>
@@ -168,6 +167,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Microsoft Office User:
 Количество пользователей для конкретного скрипта, заполняется вручную, сумма всех пользователей для 100% профиля не должна превышать 10.
@@ -531,6 +531,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -552,6 +553,7 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -559,24 +561,28 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -584,17 +590,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -602,12 +609,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Serif"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -615,6 +624,7 @@
       <color theme="1"/>
       <name val="Noto Serif"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="28">
@@ -1254,7 +1264,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1266,47 +1276,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1318,51 +1328,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="23" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="24" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="22" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="23" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="24" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="22" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1386,19 +1396,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1434,23 +1444,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1478,11 +1488,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="25" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="57" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="57" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1502,7 +1512,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1534,7 +1544,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="55" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="55" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1682,9 +1692,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="VU" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="4" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
         <n v="2"/>
-        <n v="4"/>
       </sharedItems>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
@@ -1703,9 +1713,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Итого" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="120" maxValue="240" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="120" count="2">
+        <n v="60"/>
         <n v="120"/>
-        <n v="240"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1932,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1960,7 +1970,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="53.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="16" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>19</v>
@@ -2140,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="30" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>23</v>
@@ -2215,7 +2225,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="30" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>25</v>
@@ -2290,7 +2300,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="30" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" s="18"/>
@@ -2350,7 +2360,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="31" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="18"/>
@@ -2410,7 +2420,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="33" t="n">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="18"/>
@@ -2466,8 +2476,6 @@
         <f aca="false">D8*F8*G8</f>
         <v>60</v>
       </c>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
       <c r="M8" s="34"/>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
@@ -2483,9 +2491,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="37"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
         <v>28</v>
       </c>
@@ -2531,11 +2537,11 @@
       </c>
       <c r="C13" s="20" t="n">
         <f aca="false">GETPIVOTDATA("Итого",$I$1,"transaction rq",A13)*3</f>
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="D13" s="46" t="n">
         <f aca="false">1-B13/C13</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="48" t="str">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="G13" s="49" t="n">
         <f aca="false">C13/3</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>180</v>
       </c>
       <c r="I13" s="50" t="n">
         <f aca="false">1-G13/H13</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,11 +2569,11 @@
       </c>
       <c r="C14" s="20" t="n">
         <f aca="false">GETPIVOTDATA("Итого",$I$1,"transaction rq",A14)*3</f>
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="D14" s="46" t="n">
         <f aca="false">1-B14/C14</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="48" t="str">
@@ -2576,14 +2582,14 @@
       </c>
       <c r="G14" s="49" t="n">
         <f aca="false">C14/3</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>120</v>
       </c>
       <c r="I14" s="50" t="n">
         <f aca="false">1-G14/H14</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,11 +2601,11 @@
       </c>
       <c r="C15" s="20" t="n">
         <f aca="false">GETPIVOTDATA("Итого",$I$1,"transaction rq",A15)*3</f>
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="D15" s="46" t="n">
         <f aca="false">1-B15/C15</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="48" t="str">
@@ -2608,14 +2614,14 @@
       </c>
       <c r="G15" s="49" t="n">
         <f aca="false">C15/3</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H15" s="10" t="n">
         <v>120</v>
       </c>
       <c r="I15" s="50" t="n">
         <f aca="false">1-G15/H15</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,11 +2633,11 @@
       </c>
       <c r="C16" s="20" t="n">
         <f aca="false">GETPIVOTDATA("Итого",$I$1,"transaction rq",A16)*3</f>
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="D16" s="46" t="n">
         <f aca="false">1-B16/C16</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="48" t="str">
@@ -2640,14 +2646,14 @@
       </c>
       <c r="G16" s="49" t="n">
         <f aca="false">C16/3</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H16" s="10" t="n">
         <v>180</v>
       </c>
       <c r="I16" s="50" t="n">
         <f aca="false">1-G16/H16</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,11 +2665,11 @@
       </c>
       <c r="C17" s="20" t="n">
         <f aca="false">GETPIVOTDATA("Итого",$I$1,"transaction rq",A17)*3</f>
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="D17" s="46" t="n">
         <f aca="false">1-B17/C17</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="48" t="str">
@@ -2672,14 +2678,14 @@
       </c>
       <c r="G17" s="49" t="n">
         <f aca="false">C17/3</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H17" s="10" t="n">
         <v>120</v>
       </c>
       <c r="I17" s="50" t="n">
         <f aca="false">1-G17/H17</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,15 +2698,14 @@
       </c>
       <c r="C18" s="55" t="n">
         <f aca="false">SUM(C13:C17)</f>
-        <v>4320</v>
+        <v>2160</v>
       </c>
       <c r="D18" s="46" t="n">
         <f aca="false">1-B18/C18</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="56" t="s">
@@ -2744,7 +2749,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2754,7 +2759,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
         <v>39</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="str">
         <f aca="false">'Автоматизированный расчет'!A13</f>
         <v>Вход в систему</v>
@@ -2771,7 +2776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="str">
         <f aca="false">'Автоматизированный расчет'!A14</f>
         <v>Выбор получателя</v>
@@ -2780,7 +2785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="48" t="str">
         <f aca="false">'Автоматизированный расчет'!A15</f>
         <v>Перевод</v>
@@ -2789,7 +2794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="48" t="str">
         <f aca="false">'Автоматизированный расчет'!A16</f>
         <v>Выход из системы</v>
@@ -2798,7 +2803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="str">
         <f aca="false">'Автоматизированный расчет'!A17</f>
         <v>Регистрация</v>
@@ -2832,7 +2837,7 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2841,7 +2846,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="58" t="s">
         <v>46</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
         <v>56</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
         <v>58</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
         <v>59</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
         <v>60</v>
       </c>
@@ -3001,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
         <v>61</v>
       </c>
@@ -3033,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
         <v>62</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
         <v>41</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="58" t="s">
         <v>63</v>
       </c>
@@ -3129,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="58" t="s">
         <v>64</v>
       </c>
@@ -3161,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
         <v>65</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="58" t="s">
         <v>66</v>
       </c>
@@ -3225,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="58" t="s">
         <v>67</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="58" t="s">
         <v>68</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="58" t="s">
         <v>69</v>
       </c>
@@ -3321,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="58" t="s">
         <v>70</v>
       </c>
@@ -3353,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="58" t="s">
         <v>71</v>
       </c>
@@ -3385,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="58" t="s">
         <v>72</v>
       </c>
@@ -3417,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="58" t="s">
         <v>73</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="58" t="s">
         <v>74</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="58" t="s">
         <v>75</v>
       </c>
@@ -3531,8 +3536,8 @@
   </sheetPr>
   <dimension ref="E1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3566,7 +3571,6 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="61" t="s">
         <v>77</v>
@@ -3581,7 +3585,7 @@
       <c r="M3" s="63"/>
       <c r="N3" s="63"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>
@@ -3742,7 +3746,7 @@
       <c r="M10" s="63"/>
       <c r="N10" s="63"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="62" t="s">
         <v>7</v>
       </c>
@@ -3765,7 +3769,7 @@
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
@@ -3777,7 +3781,7 @@
       <c r="M12" s="63"/>
       <c r="N12" s="63"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
@@ -3789,7 +3793,7 @@
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
@@ -3801,7 +3805,7 @@
       <c r="M14" s="63"/>
       <c r="N14" s="63"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62"/>
@@ -5348,7 +5352,7 @@
       <c r="M135" s="63"/>
       <c r="N135" s="63"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="62"/>
       <c r="F136" s="62"/>
       <c r="G136" s="62"/>
@@ -5360,7 +5364,7 @@
       <c r="M136" s="63"/>
       <c r="N136" s="63"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="61" t="s">
         <v>85</v>
       </c>
@@ -5374,7 +5378,7 @@
       <c r="M137" s="63"/>
       <c r="N137" s="63"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="62"/>
       <c r="F138" s="62"/>
       <c r="G138" s="62"/>
@@ -5458,7 +5462,7 @@
       <c r="M141" s="71"/>
       <c r="N141" s="71"/>
     </row>
-    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="65" t="s">
         <v>90</v>
       </c>
@@ -5481,7 +5485,7 @@
       <c r="M142" s="71"/>
       <c r="N142" s="71"/>
     </row>
-    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="65" t="s">
         <v>92</v>
       </c>
@@ -5619,7 +5623,7 @@
       <c r="M148" s="63"/>
       <c r="N148" s="63"/>
     </row>
-    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="65" t="s">
         <v>103</v>
       </c>
@@ -5642,7 +5646,7 @@
       <c r="M149" s="63"/>
       <c r="N149" s="63"/>
     </row>
-    <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="65" t="s">
         <v>105</v>
       </c>
@@ -5688,7 +5692,7 @@
       <c r="M151" s="63"/>
       <c r="N151" s="63"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="62" t="s">
         <v>7</v>
       </c>
@@ -5710,7 +5714,7 @@
       <c r="M152" s="63"/>
       <c r="N152" s="63"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="62"/>
@@ -5722,7 +5726,7 @@
       <c r="M153" s="63"/>
       <c r="N153" s="63"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="62"/>
@@ -5734,7 +5738,7 @@
       <c r="M154" s="63"/>
       <c r="N154" s="63"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="62"/>
@@ -5746,7 +5750,7 @@
       <c r="M155" s="63"/>
       <c r="N155" s="63"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="61" t="s">
         <v>109</v>
       </c>
@@ -5760,7 +5764,7 @@
       <c r="M156" s="63"/>
       <c r="N156" s="63"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="62"/>
@@ -5850,7 +5854,7 @@
       <c r="M160" s="71"/>
       <c r="N160" s="71"/>
     </row>
-    <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="65" t="s">
         <v>90</v>
       </c>
@@ -5876,7 +5880,7 @@
       <c r="M161" s="71"/>
       <c r="N161" s="71"/>
     </row>
-    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="65" t="s">
         <v>92</v>
       </c>
@@ -6032,7 +6036,7 @@
       <c r="M167" s="63"/>
       <c r="N167" s="63"/>
     </row>
-    <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="65" t="s">
         <v>103</v>
       </c>
@@ -6058,7 +6062,7 @@
       <c r="M168" s="63"/>
       <c r="N168" s="63"/>
     </row>
-    <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="65" t="s">
         <v>105</v>
       </c>
@@ -6110,7 +6114,7 @@
       <c r="M170" s="63"/>
       <c r="N170" s="63"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="62" t="s">
         <v>7</v>
       </c>
@@ -6133,9 +6137,7 @@
       <c r="M171" s="63"/>
       <c r="N171" s="63"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="61" t="s">
         <v>110</v>
       </c>
@@ -6147,7 +6149,7 @@
       <c r="K174" s="62"/>
       <c r="L174" s="63"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="62"/>
@@ -6223,7 +6225,7 @@
       <c r="K178" s="62"/>
       <c r="L178" s="63"/>
     </row>
-    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="65" t="s">
         <v>90</v>
       </c>
@@ -6244,7 +6246,7 @@
       <c r="K179" s="62"/>
       <c r="L179" s="63"/>
     </row>
-    <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="65" t="s">
         <v>92</v>
       </c>
@@ -6370,7 +6372,7 @@
       <c r="K185" s="62"/>
       <c r="L185" s="63"/>
     </row>
-    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="65" t="s">
         <v>103</v>
       </c>
@@ -6391,7 +6393,7 @@
       <c r="K186" s="62"/>
       <c r="L186" s="63"/>
     </row>
-    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="65" t="s">
         <v>105</v>
       </c>
@@ -6433,7 +6435,7 @@
       <c r="K188" s="62"/>
       <c r="L188" s="63"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="62" t="s">
         <v>7</v>
       </c>
